--- a/E4S/wwwroot/document/EMPLOYEE_LIST_UPLOAD.xlsx
+++ b/E4S/wwwroot/document/EMPLOYEE_LIST_UPLOAD.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elijah\source\repos\E4S\E4S\wwwroot\document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elijah\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9885"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17550" windowHeight="7410"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,13 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>FIRSTNAME</t>
-  </si>
-  <si>
-    <t>LASTNAME</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>EMPLOYEE EMAIL</t>
   </si>
@@ -50,7 +44,16 @@
     <t>AMOUNT</t>
   </si>
   <si>
-    <t>PAY FREQUENCY (MONTHLY, WEEKLY)</t>
+    <t>PAY FREQUENCY</t>
+  </si>
+  <si>
+    <t>Annually</t>
+  </si>
+  <si>
+    <t>FIRST NAME</t>
+  </si>
+  <si>
+    <t>LAST NAME</t>
   </si>
 </sst>
 </file>
@@ -368,10 +371,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -393,34 +396,50 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" t="s">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H2" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576">
+      <formula1>"Male, Female, Others"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576">
+      <formula1>"Single, Married, Divorce, Separated, Others"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H1048576">
+      <formula1>"Annually, Monthly, Weekly, Contract"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>